--- a/documents/test2.xlsx
+++ b/documents/test2.xlsx
@@ -742,18 +742,14 @@
           <t>Assiduité – Exactitude</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr"/>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr"/>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G3" s="1" t="inlineStr"/>
       <c r="H3" s="1" t="inlineStr"/>
       <c r="I3" s="1" t="inlineStr"/>
     </row>
@@ -764,12 +760,12 @@
           <t>Dynamisme - Volonté</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr"/>
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F4" s="1" t="inlineStr"/>
       <c r="G4" s="1" t="inlineStr"/>
       <c r="H4" s="1" t="inlineStr"/>
@@ -783,11 +779,7 @@
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr"/>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr"/>
       <c r="G5" s="1" t="inlineStr"/>
       <c r="H5" s="1" t="inlineStr"/>
@@ -800,19 +792,15 @@
           <t>Objectivité - Esprit critique</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr"/>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -822,13 +810,13 @@
           <t>Présentation - Tenue</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
@@ -846,13 +834,13 @@
       </c>
       <c r="D8" s="1" t="inlineStr"/>
       <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -865,7 +853,11 @@
       <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr"/>
-      <c r="G9" s="1" t="inlineStr"/>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="inlineStr"/>
     </row>
@@ -879,12 +871,12 @@
       <c r="D10" s="1" t="inlineStr"/>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr"/>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr"/>
+      <c r="G10" s="1" t="inlineStr"/>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I10" s="1" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -896,14 +888,14 @@
       </c>
       <c r="D11" s="1" t="inlineStr"/>
       <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F11" s="1" t="inlineStr"/>
       <c r="G11" s="1" t="inlineStr"/>
       <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B12" s="15" t="n"/>
@@ -913,14 +905,14 @@
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr"/>
       <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I12" s="1" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -947,11 +939,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H13" s="1" t="inlineStr"/>
       <c r="I13" s="1" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -964,21 +952,13 @@
       <c r="D14" s="1" t="inlineStr"/>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G14" s="1" t="inlineStr"/>
       <c r="H14" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I14" s="1" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B15" s="14" t="n"/>
@@ -1009,7 +989,11 @@
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr"/>
       <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr"/>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I16" s="1" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1020,16 +1004,8 @@
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr"/>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E17" s="1" t="inlineStr"/>
+      <c r="F17" s="1" t="inlineStr"/>
       <c r="G17" s="1" t="inlineStr">
         <is>
           <t>X</t>
@@ -1051,14 +1027,14 @@
       </c>
       <c r="D18" s="1" t="inlineStr"/>
       <c r="E18" s="1" t="inlineStr"/>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F18" s="1" t="inlineStr"/>
       <c r="G18" s="1" t="inlineStr"/>
       <c r="H18" s="1" t="inlineStr"/>
-      <c r="I18" s="1" t="inlineStr"/>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B19" s="14" t="n"/>
@@ -1069,16 +1045,8 @@
       </c>
       <c r="D19" s="1" t="inlineStr"/>
       <c r="E19" s="1" t="inlineStr"/>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F19" s="1" t="inlineStr"/>
+      <c r="G19" s="1" t="inlineStr"/>
       <c r="H19" s="1" t="inlineStr"/>
       <c r="I19" s="1" t="inlineStr"/>
     </row>
@@ -1090,18 +1058,14 @@
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr"/>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E20" s="1" t="inlineStr"/>
+      <c r="F20" s="1" t="inlineStr"/>
       <c r="G20" s="1" t="inlineStr"/>
-      <c r="H20" s="1" t="inlineStr"/>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I20" s="1" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1112,14 +1076,14 @@
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr"/>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr"/>
       <c r="G21" s="1" t="inlineStr"/>
-      <c r="H21" s="1" t="inlineStr"/>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I21" s="1" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1130,11 +1094,7 @@
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr"/>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr"/>
       <c r="G22" s="1" t="inlineStr"/>
       <c r="H22" s="1" t="inlineStr"/>
@@ -1158,14 +1118,14 @@
       </c>
       <c r="D23" s="1" t="inlineStr"/>
       <c r="E23" s="1" t="inlineStr"/>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F23" s="1" t="inlineStr"/>
       <c r="G23" s="1" t="inlineStr"/>
-      <c r="H23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
+      <c r="H23" s="1" t="inlineStr"/>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B24" s="14" t="n"/>
@@ -1189,17 +1149,13 @@
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr"/>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G25" s="1" t="inlineStr"/>
+      <c r="E25" s="1" t="inlineStr"/>
+      <c r="F25" s="1" t="inlineStr"/>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H25" s="1" t="inlineStr"/>
       <c r="I25" s="1" t="inlineStr"/>
     </row>
@@ -1226,13 +1182,13 @@
       </c>
       <c r="D27" s="1" t="inlineStr"/>
       <c r="E27" s="1" t="inlineStr"/>
-      <c r="F27" s="1" t="inlineStr"/>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G27" s="1" t="inlineStr"/>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H27" s="1" t="inlineStr"/>
       <c r="I27" s="1" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1245,17 +1201,13 @@
       <c r="D28" s="1" t="inlineStr"/>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr"/>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr"/>
-      <c r="I28" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G28" s="1" t="inlineStr"/>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="inlineStr"/>
     </row>
     <row r="29" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>

--- a/documents/test2.xlsx
+++ b/documents/test2.xlsx
@@ -747,7 +747,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F3" s="1" t="inlineStr"/>
       <c r="G3" s="1" t="inlineStr"/>
       <c r="H3" s="1" t="inlineStr"/>
@@ -913,7 +917,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="A13" s="2" t="inlineStr">
@@ -1120,12 +1128,12 @@
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr"/>
       <c r="G23" s="1" t="inlineStr"/>
-      <c r="H23" s="1" t="inlineStr"/>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B24" s="14" t="n"/>
@@ -1201,7 +1209,11 @@
       <c r="D28" s="1" t="inlineStr"/>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr"/>
-      <c r="G28" s="1" t="inlineStr"/>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
           <t>X</t>
